--- a/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,89</t>
+          <t>-0,93; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,43</t>
+          <t>-0,96; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,43</t>
+          <t>-1,18; 0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,51</t>
+          <t>-1,46; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 439,62</t>
+          <t>-54,43; 478,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 502,49</t>
+          <t>-54,09; 387,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 131,32</t>
+          <t>-51,83; 169,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,5</t>
+          <t>-2,77; 0,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,35</t>
+          <t>-0,68; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,33</t>
+          <t>-0,62; 2,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,39</t>
+          <t>-2,92; 1,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 99,36</t>
+          <t>-100,0; 108,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1000,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,61; —</t>
+          <t>-67,02; 1039,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 103,78</t>
+          <t>-71,62; 89,65</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,93</t>
+          <t>-0,77; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,68</t>
+          <t>-1,68; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,91</t>
+          <t>-1,41; 5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,34</t>
+          <t>-0,76; 8,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1153,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 200,08</t>
+          <t>-67,74; 237,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 775,56</t>
+          <t>-33,57; 818,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,0</t>
+          <t>-1,41; 0,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,07</t>
+          <t>-0,83; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,32</t>
+          <t>-0,8; 1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 56,41</t>
+          <t>-0,51; 57,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,91; 83,11</t>
+          <t>-66,55; 76,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 143,23</t>
+          <t>-37,05; 188,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 254,84</t>
+          <t>-55,99; 196,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 3081,87</t>
+          <t>-21,67; 3336,17</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,45</t>
+          <t>-3,16; 0,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,31</t>
+          <t>-0,63; 2,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,96</t>
+          <t>-1,75; 0,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,0</t>
+          <t>-1,37; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 64,21</t>
+          <t>-84,8; 61,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 555,44</t>
+          <t>-41,6; 631,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 129,48</t>
+          <t>-72,16; 131,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 160,43</t>
+          <t>-29,19; 160,79</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,31</t>
+          <t>-0,78; 2,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,79</t>
+          <t>-2,92; 1,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,16</t>
+          <t>-1,14; 1,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,71</t>
+          <t>1,23; 3,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,01; —</t>
+          <t>-45,92; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 439,42</t>
+          <t>-68,34; 280,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,75; —</t>
+          <t>-78,73; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 3610,68</t>
+          <t>50,36; 3861,38</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,72</t>
+          <t>-0,5; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,18</t>
+          <t>-0,22; 1,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,58</t>
+          <t>-0,47; 0,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 24,51</t>
+          <t>0,49; 22,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 58,48</t>
+          <t>-26,14; 61,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 84,66</t>
+          <t>-11,1; 82,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 81,55</t>
+          <t>-37,32; 71,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,35; 1240,23</t>
+          <t>20,99; 1108,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
